--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1789661.839847906</v>
+        <v>1826987.55353817</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6111294.049071856</v>
+        <v>6200266.973396005</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>74.85450227885472</v>
       </c>
     </row>
     <row r="3">
@@ -896,10 +896,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>104.2799974954328</v>
       </c>
       <c r="D5" t="n">
-        <v>70.65789792662999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -953,13 +953,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -987,7 +987,7 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462964364</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>146.6325435271071</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>419.9023013107135</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1300,13 +1300,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>84.29140345193706</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.9521757218097</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225841</v>
+        <v>43.4889870101621</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>163.5395542426784</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>61.08641542222824</v>
+        <v>126.5517316786947</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>255.3659184736041</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170482</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>5.990622819018747</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>31.24391673888168</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>94.21878984361713</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2810,7 +2810,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.990622819019141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3080,7 +3080,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3332,7 +3332,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.30825486907117</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226246</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3569,7 +3569,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633449</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3715,7 +3715,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>113.7218216744507</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>333.9727521750708</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>141.3509401177971</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225731</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3983,7 +3983,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>161.4258646586654</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4144,7 +4144,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>35.34780583513542</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
         <v>119.3744157384487</v>
@@ -4328,28 +4328,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>587.458323283332</v>
+        <v>241.1964645297849</v>
       </c>
       <c r="C5" t="n">
-        <v>158.8766490206003</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>102.8181913809225</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>726.9189754257008</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515257</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1975.120543515257</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2262.397026790869</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>1899.780076724695</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>1494.924622135729</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.044017468586</v>
+        <v>1075.782158715039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1013.75789376824</v>
+        <v>667.4960350146927</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>593.0357356940362</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>420.4740241772612</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>254.5960313787839</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>84.83802762952112</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>68.8461756808652</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>343.6046302520008</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1549.069749750006</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1303.677995083419</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>784.8543544130234</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.6402219259112</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>531.106321578008</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>991.5079608390885</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>947.4105542393174</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>774.8488427225424</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>608.9708499240651</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>439.2128461748023</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1612.040598310784</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1366.648843644196</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1139.229172958305</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580462</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2730.888184049006</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3856.619167485453</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4836.798834055759</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.798834055759</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1642.802960065584</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1642.802960065584</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1642.802960065584</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1642.802960065584</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1642.802960065584</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.692136662472</v>
+        <v>2591.090418174897</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.812690240927</v>
+        <v>2345.210971753353</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.379689494032</v>
+        <v>2066.777971006458</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.424181364463</v>
+        <v>1779.822462876888</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1507.79605846318</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1262.404303796593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1034.984633110701</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181363</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277509</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366617</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.0771858389835</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>635.5154743222083</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>469.637481523731</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>299.8794777744683</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>123.1724237362244</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324159</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243863</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579709</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,64 +5738,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.710185817961</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>926.1484743011861</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>760.2704815027088</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>590.5124777534461</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>413.8054237152023</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>248.2141487410299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>108.3119744314046</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5944,16 +5944,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1763.340229889428</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1517.94847522284</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1290.528804536948</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,19 +5999,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883921</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903958</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736207</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751434</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258806</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876368</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.710185817961</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>926.1484743011861</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>760.2704815027089</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>590.5124777534461</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>413.8054237152023</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
-        <v>248.2141487410299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>108.3119744314045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2035.366634303136</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1763.340229889428</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1517.94847522284</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.528804536948</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7096,49 +7096,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066099</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745709</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955484</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113129</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,7 +7160,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7208,16 +7208,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755404</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2177.511286811514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1890.555778681944</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638994</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822418</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996862</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1128.704458155157</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369036</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601675</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2496.531034410832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244938</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824249</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.909505607455</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906799</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429398</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390639</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.521462222199</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678921</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.51439535199</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526434</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.38502577451</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353821</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653474</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>806.2298140987273</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>633.6681025819522</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>467.7901097834749</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>298.0321060342122</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460366</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.468103503606</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.0484328177145</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479339</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,22 +8933,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>292.4113754585205</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964332</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288205</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>267.5985112554902</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627249</v>
+        <v>114.1599680048212</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>268.0111327346215</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>96.56253959275506</v>
+        <v>31.09722333628859</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>178.3951296148068</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>81.78272691405266</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>69.71657238081347</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>81.78272691405228</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627208</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>161.926849064975</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>89.61600311981354</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>22.86827275269542</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>268.0111327346224</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>513193.3208781235</v>
+        <v>523761.9228975195</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>513193.3208781235</v>
+        <v>525664.8229357908</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>519445.0182719065</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>519445.0182719065</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>526774.8926666846</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>541366.1916221672</v>
+        <v>541366.1916221675</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534036.3172273893</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519445.0182719064</v>
+        <v>541366.1916221672</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068472</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="E2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>429695.3132759249</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="G2" t="n">
-        <v>435758.7320470116</v>
+        <v>447828.9465167497</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167493</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="I2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="M2" t="n">
-        <v>447828.9465167496</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="N2" t="n">
         <v>447828.9465167494</v>
       </c>
       <c r="O2" t="n">
-        <v>441765.5277456628</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>429695.3132759248</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.898793246</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856655</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
-        <v>65247.19221856655</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
-        <v>66167.89355701636</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="O4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="O4" t="n">
-        <v>67079.996950883</v>
-      </c>
-      <c r="P4" t="n">
-        <v>65247.19221856655</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26494,10 +26494,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54280.30686339946</v>
+        <v>54280.3068633994</v>
       </c>
       <c r="C6" t="n">
-        <v>196471.6075231093</v>
+        <v>153954.3414105828</v>
       </c>
       <c r="D6" t="n">
-        <v>196471.6075231093</v>
+        <v>213348.4605424329</v>
       </c>
       <c r="E6" t="n">
-        <v>56573.75675767352</v>
+        <v>119731.6760611918</v>
       </c>
       <c r="F6" t="n">
-        <v>290928.7787797109</v>
+        <v>302086.7852822416</v>
       </c>
       <c r="G6" t="n">
-        <v>288338.2826469027</v>
+        <v>302086.7852822417</v>
       </c>
       <c r="H6" t="n">
-        <v>289707.2546416607</v>
+        <v>302086.7852822415</v>
       </c>
       <c r="I6" t="n">
-        <v>302110.0096216241</v>
+        <v>302086.7852822416</v>
       </c>
       <c r="J6" t="n">
-        <v>191095.5442766341</v>
+        <v>191072.3199372514</v>
       </c>
       <c r="K6" t="n">
-        <v>302110.0096216243</v>
+        <v>249040.9306434692</v>
       </c>
       <c r="L6" t="n">
-        <v>302110.0096216243</v>
+        <v>292694.4835556191</v>
       </c>
       <c r="M6" t="n">
-        <v>106508.8303385566</v>
+        <v>149886.6143442538</v>
       </c>
       <c r="N6" t="n">
-        <v>302110.0096216241</v>
+        <v>302086.7852822414</v>
       </c>
       <c r="O6" t="n">
-        <v>298371.2947115818</v>
+        <v>302086.7852822416</v>
       </c>
       <c r="P6" t="n">
-        <v>290928.7787797108</v>
+        <v>302086.7852822416</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>329.3487601844884</v>
       </c>
     </row>
     <row r="3">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>329.4810505929781</v>
       </c>
       <c r="D5" t="n">
-        <v>360.8927890506699</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682177</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>122.6735968424643</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>11.64838566658642</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,10 +27910,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>185.0147369176343</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q2" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479339</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368463</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>407.152590549595</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35574,16 +35574,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35647,28 +35647,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>292.4113754585205</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>519.9105708963859</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964332</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37464,13 +37464,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961015</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>51.97234365288205</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
